--- a/biology/Botanique/Rosier_de_Caroline/Rosier_de_Caroline.xlsx
+++ b/biology/Botanique/Rosier_de_Caroline/Rosier_de_Caroline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa carolina, le rosier de Caroline, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier de la section des Carolinæ, souvent confondue avec Rosa virginiana et Rosa pallustris, originaire d'Amérique du Nord[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa carolina, le rosier de Caroline, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier de la section des Carolinæ, souvent confondue avec Rosa virginiana et Rosa pallustris, originaire d'Amérique du Nord.
 Synonyme : Rosa virginiana var. humilis
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa carolina est un buisson haut d'environ 1,50 m, très drageonnant, et ses tiges sont souvent lisses avec des feuilles à 5 folioles aux bords à dents aiguës.
 Ses fleurs, de couleur rose et le plus souvent isolées, apparaissent en juillet.
@@ -544,7 +558,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa carolina 'alba', à fleurs blanches
 Rosa carolina 'grandiflora', aux fleurs de 6 cm et aux feuilles à 7 folioles
